--- a/Ejercicios OZ/Ejercicio 9.1.xlsx
+++ b/Ejercicios OZ/Ejercicio 9.1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" activeTab="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="143">
   <si>
     <t>local MyMap F1 L Lout A B C in</t>
   </si>
@@ -176,12 +176,6 @@
     <t>E={MYmAP-&gt;m1, F1-&gt;f1, L-&gt;l1, L2-&gt;lOUT, A-&gt;a1, B-&gt; b1. C-&gt;c1}</t>
   </si>
   <si>
-    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end) ,f1=(proc{$ X R}&lt;sp2&gt;end),l1,l2,a1,b1,c1}</t>
-  </si>
-  <si>
-    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end) ,f1=(proc{$ X R}&lt;sp2&gt;end),l1=[1 2 3 4],l2,a1,b1,c1}</t>
-  </si>
-  <si>
     <t>PASO 4</t>
   </si>
   <si>
@@ -227,12 +221,6 @@
     <t>E3= {X-&gt;x1, R-&gt; u1}</t>
   </si>
   <si>
-    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end) ,f1=(proc{$ X R}&lt;sp2&gt;end),l1=[1 2 3 4],l2,a1,b1,c1,x1=1, xr1=[2 3 4]}</t>
-  </si>
-  <si>
-    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end) ,f1=(proc{$ X R}&lt;sp2&gt;end),l1=[1 2 3 4],l2,a1,b1,c1,x1=1, xr1=[2 3 4],u1,v1}</t>
-  </si>
-  <si>
     <t>PASO 8</t>
   </si>
   <si>
@@ -245,9 +233,6 @@
     <t>E4= {X-&gt;x1, R-&gt; u1, T-&gt;t1}</t>
   </si>
   <si>
-    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end) ,f1=(proc{$ X R}&lt;sp2&gt;end),l1=[1 2 3 4],l2,a1,b1,c1,x1=1, xr1=[2 3 4],u1,v1, t1=(proc{$ R}&lt;sp2_1-1&gt;end)}</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -263,9 +248,6 @@
     <t xml:space="preserve">PASO 11 </t>
   </si>
   <si>
-    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end) ,f1=(proc{$ X R}&lt;sp2&gt;end),l1=[1 2 3 4],l2=[u1 ],a1,b1,c1,x1=1, xr1=[2 3 4],u1,v1, t1=(proc{$ R}&lt;sp2_1-1&gt;end)}</t>
-  </si>
-  <si>
     <t>PASO 12</t>
   </si>
   <si>
@@ -290,9 +272,6 @@
     <t>E6 = {Xs-&gt;xr1, F-&gt;f1, R-&gt;v1, U-&gt;u2, V-&gt;v2}</t>
   </si>
   <si>
-    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end) ,f1=(proc{$ X R}&lt;sp2&gt;end),l1=[1 2 3 4],l2=[u1 ],a1,b1,c1,x1=1, xr1=[2 3 4],u1,v1, t1=(proc{$ R}&lt;sp2_1-1&gt;end),u2,v2}</t>
-  </si>
-  <si>
     <t xml:space="preserve">PASO 14 </t>
   </si>
   <si>
@@ -302,12 +281,6 @@
     <t>PASO 15</t>
   </si>
   <si>
-    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end) ,f1=(proc{$ X R}&lt;sp2&gt;end),l1=[1 2 3 4],l2=[u1 ],a1,b1,c1,x1=1, xr1=[2 3 4],u1,v1, t1=(proc{$ R}&lt;sp2_1-1&gt;end),x2=2, xr2=[3 4],u2,v2, t2=(proc{$ R}&lt;sp2_1-1&gt;end)}</t>
-  </si>
-  <si>
-    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end) ,f1=(proc{$ X R}&lt;sp2&gt;end),l1=[1 2 3 4],l2=[u1 v1 ],a1,b1,c1,x1=1, xr1=[2 3 4],u1,v1=[u2 v2], t1=(proc{$ R}&lt;sp2_1-1&gt;end),x2=2, xr2=[3 4],u2,v2, t2=(proc{$ R}&lt;sp2_1-1&gt;end)}</t>
-  </si>
-  <si>
     <t>PASO 16</t>
   </si>
   <si>
@@ -326,9 +299,6 @@
     <t>&lt;sp1_2-2&gt;, E8</t>
   </si>
   <si>
-    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end) ,f1=(proc{$ X R}&lt;sp2&gt;end),l1=[1 2 3 4],l2=[u1 v1 ],a1,b1,c1,x1=1, xr1=[2 3 4],u1,v1=[u2 v2], t1=(proc{$ R}&lt;sp2_1-1&gt;end),x2=2, xr2=[3 4],u2,v2, t2=(proc{$ R}&lt;sp2_1-1&gt;end), x2= 3, xr2=[4 ], u3, v3}</t>
-  </si>
-  <si>
     <t>PASO 17</t>
   </si>
   <si>
@@ -338,15 +308,9 @@
     <t>t={trigg(t1,u1),trigg(t2,u2),,trigg(t3,u3)}</t>
   </si>
   <si>
-    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end) ,f1=(proc{$ X R}&lt;sp2&gt;end),l1=[1 2 3 4],l2=[u1 v1 ],a1,b1,c1,x1=1, xr1=[2 3 4],u1,v1=[u2 v2], t1=(proc{$ R}&lt;sp2_1-1&gt;end),x2=2, xr2=[3 4],u2,v2, t2=(proc{$ R}&lt;sp2_1-1&gt;end), x3= 3, xr3=[4 ], u3, v3,t2=(proc{$ R}&lt;sp2_1-1&gt;end)}</t>
-  </si>
-  <si>
     <t xml:space="preserve">PASO 19 </t>
   </si>
   <si>
-    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end) ,f1=(proc{$ X R}&lt;sp2&gt;end),l1=[1 2 3 4],l2=[u1 v1 ],a1,b1,c1,x1=1, xr1=[2 3 4],u1,v1=[u2 v2], t1=(proc{$ R}&lt;sp2_1-1&gt;end),x2=2, xr2=[3 4],u2,v2=[u3 v3], t2=(proc{$ R}&lt;sp2_1-1&gt;end), x3= 3, xr3=[4 ], u3, v3,t2=(proc{$ R}&lt;sp2_1-1&gt;end)}</t>
-  </si>
-  <si>
     <t>PASO 20</t>
   </si>
   <si>
@@ -356,9 +320,6 @@
     <t xml:space="preserve">PASO 21 </t>
   </si>
   <si>
-    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end) ,f1=(proc{$ X R}&lt;sp2&gt;end),l1=[1 2 3 4],l2=[u1 v1 ],a1,b1,c1,x1=1, xr1=[2 3 4],u1,v1=[u2 v2], t1=(proc{$ R}&lt;sp2_1-1&gt;end),x2=2, xr2=[3 4],u2,v2=[u3 v3], t2=(proc{$ R}&lt;sp2_1-1&gt;end), x3= 3, xr3=[4 ], u3, v3,t2=(proc{$ R}&lt;sp2_1-1&gt;end), x4=4, xr4 =[ ], u4, v4}</t>
-  </si>
-  <si>
     <t>&lt;sp1&gt;,E9</t>
   </si>
   <si>
@@ -380,18 +341,12 @@
     <t>E10 = {Xs-&gt;xr3, F-&gt;f1, R-&gt;v2, U-&gt;u4, V-&gt;v4}</t>
   </si>
   <si>
-    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end) ,f1=(proc{$ X R}&lt;sp2&gt;end),l1=[1 2 3 4],l2=[u1 v1 ],a1,b1,c1,x1=1, xr1=[2 3 4],u1,v1=[u2 v2], t1=(proc{$ R}&lt;sp2_1-1&gt;end),x2=2, xr2=[3 4],u2,v2=[u3 v3], t2=(proc{$ R}&lt;sp2_1-1&gt;end), x3= 3, xr3=[4 ], u3, v3,t3=(proc{$ R}&lt;sp2_1-1&gt;end), x4=4, xr4 =[ ], u4, v4,,t4=(proc{$ R}&lt;sp2_1-1&gt;end)}</t>
-  </si>
-  <si>
     <t>t={trigg(t1,u1),trigg(t2,u2),trigg(t3,u3),trigg(t4,u4)}</t>
   </si>
   <si>
     <t xml:space="preserve">PASO 23 </t>
   </si>
   <si>
-    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end) ,f1=(proc{$ X R}&lt;sp2&gt;end),l1=[1 2 3 4],l2=[u1 v1 ],a1,b1,c1,x1=1, xr1=[2 3 4],u1,v1=[u2 v2], t1=(proc{$ R}&lt;sp2_1-1&gt;end),x2=2, xr2=[3 4],u2,v2=[u3 v3], t2=(proc{$ R}&lt;sp2_1-1&gt;end), x3= 3, xr3=[4 ], u3, v3=[u4 v4],t3=(proc{$ R}&lt;sp2_1-1&gt;end), x4=4, xr4 =[ ], u4, v4,t4=(proc{$ R}&lt;sp2_1-1&gt;end)}</t>
-  </si>
-  <si>
     <t xml:space="preserve">PASO 24 </t>
   </si>
   <si>
@@ -404,9 +359,6 @@
     <t>PSAO 25</t>
   </si>
   <si>
-    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end) ,f1=(proc{$ X R}&lt;sp2&gt;end),l1=[1 2 3 4],l2=[u1 v1 ],a1,b1,c1,x1=1, xr1=[2 3 4],u1,v1=[u2 v2], t1=(proc{$ R}&lt;sp2_1-1&gt;end),x2=2, xr2=[3 4],u2,v2=[u3 v3], t2=(proc{$ R}&lt;sp2_1-1&gt;end), x3= 3, xr3=[4 ], u3, v3=[u4 v4],t3=(proc{$ R}&lt;sp2_1-1&gt;end), x4=4, xr4 =[ ], u4, v4=nil,t4=(proc{$ R}&lt;sp2_1-1&gt;end)}</t>
-  </si>
-  <si>
     <t xml:space="preserve">PASO 26 </t>
   </si>
   <si>
@@ -431,29 +383,74 @@
     <t>t={trigg(t3,u3),trigg(t4,u4)}</t>
   </si>
   <si>
-    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end) ,f1=(proc{$ X R}&lt;sp2&gt;end),l1=[1 2 3 4],l2=[u1 v1 ],a1,b1=4,c1,x1=1, xr1=[2 3 4],u1,v1=[u2 v2], t1=(proc{$ R}&lt;sp2_1-1&gt;end),x2=2, xr2=[3 4],u2,v2=[u3 v3], t2=(proc{$ R}&lt;sp2_1-1&gt;end), x3= 3, xr3=[4 ], u3, v3=[u4 v4],t3=(proc{$ R}&lt;sp2_1-1&gt;end), x4=4, xr4 =[ ], u4, v4=nil,t4=(proc{$ R}&lt;sp2_1-1&gt;end)}</t>
-  </si>
-  <si>
     <t xml:space="preserve">PASO 29 </t>
   </si>
   <si>
-    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end) ,f1=(proc{$ X R}&lt;sp2&gt;end),l1=[1 2 3 4],l2=[u1 v1 ],a1=1,b1=4,c1,x1=1, xr1=[2 3 4],u1,v1=[u2 v2], t1=(proc{$ R}&lt;sp2_1-1&gt;end),x2=2, xr2=[3 4],u2,v2=[u3 v3], t2=(proc{$ R}&lt;sp2_1-1&gt;end), x3= 3, xr3=[4 ], u3, v3=[u4 v4],t3=(proc{$ R}&lt;sp2_1-1&gt;end), x4=4, xr4 =[ ], u4, v4=nil,t4=(proc{$ R}&lt;sp2_1-1&gt;end)}</t>
-  </si>
-  <si>
     <t xml:space="preserve">PASO 30 </t>
   </si>
   <si>
-    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end) ,f1=(proc{$ X R}&lt;sp2&gt;end),l1=[1 2 3 4],l2=[u1 v1 ],a1=1,b1=4,c1=5,x1=1, xr1=[2 3 4],u1,v1=[u2 v2], t1=(proc{$ R}&lt;sp2_1-1&gt;end),x2=2, xr2=[3 4],u2,v2=[u3 v3], t2=(proc{$ R}&lt;sp2_1-1&gt;end), x3= 3, xr3=[4 ], u3, v3=[u4 v4],t3=(proc{$ R}&lt;sp2_1-1&gt;end), x4=4, xr4 =[ ], u4, v4=nil,t4=(proc{$ R}&lt;sp2_1-1&gt;end)}</t>
-  </si>
-  <si>
     <t>PASO 31</t>
+  </si>
+  <si>
+    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end,{}) ,f1=(proc{$ X R}&lt;sp2&gt;end,{}),l1,l2,a1,b1,c1}</t>
+  </si>
+  <si>
+    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end,{}) ,f1=(proc{$ X R}&lt;sp2&gt;end,{}),l1=[1 2 3 4],l2,a1,b1,c1}</t>
+  </si>
+  <si>
+    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end,{}) ,f1=(proc{$ X R}&lt;sp2&gt;end,{}),l1=[1 2 3 4],l2,a1,b1,c1,x1=1, xr1=[2 3 4]}</t>
+  </si>
+  <si>
+    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end,{}) ,f1=(proc{$ X R}&lt;sp2&gt;end,{}),l1=[1 2 3 4],l2,a1,b1,c1,x1=1, xr1=[2 3 4],u1,v1}</t>
+  </si>
+  <si>
+    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end,{}) ,f1=(proc{$ X R}&lt;sp2&gt;end,{}),l1=[1 2 3 4],l2,a1,b1,c1,x1=1, xr1=[2 3 4],u1,v1, t1=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x1})}</t>
+  </si>
+  <si>
+    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end,{}) ,f1=(proc{$ X R}&lt;sp2&gt;end,{}),l1=[1 2 3 4],l2=[u1 ],a1,b1,c1,x1=1, xr1=[2 3 4],u1,v1, t1=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x1})}</t>
+  </si>
+  <si>
+    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end,{}) ,f1=(proc{$ X R}&lt;sp2&gt;end,{}),l1=[1 2 3 4],l2=[u1 ],a1,b1,c1,x1=1, xr1=[2 3 4],u1,v1, t1=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x1}),u2,v2}</t>
+  </si>
+  <si>
+    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end,{}) ,f1=(proc{$ X R}&lt;sp2&gt;end,{}),l1=[1 2 3 4],l2=[u1 ],a1,b1,c1,x1=1, xr1=[2 3 4],u1,v1,t1=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x1}),x2=2, xr2=[3 4],u2,v2, t2=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x2})}</t>
+  </si>
+  <si>
+    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end,{}) ,f1=(proc{$ X R}&lt;sp2&gt;end,{}),l1=[1 2 3 4],l2=[u1 v1 ],a1,b1,c1,x1=1, xr1=[2 3 4],u1,v1=[u2 v2], t1=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x1}),x2=2, xr2=[3 4],u2,v2, t2=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x2})}</t>
+  </si>
+  <si>
+    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end,{}) ,f1=(proc{$ X R}&lt;sp2&gt;end,{}),l1=[1 2 3 4],l2=[u1 v1 ],a1,b1,c1,x1=1, xr1=[2 3 4],u1,v1=[u2 v2], t1=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x1}),x2=2, xr2=[3 4],u2,v2, t2=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x2}), x2= 3, xr2=[4 ], u3, v3}</t>
+  </si>
+  <si>
+    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end,{}) ,f1=(proc{$ X R}&lt;sp2&gt;end,{}),l1=[1 2 3 4],l2=[u1 v1 ],a1,b1,c1,x1=1, xr1=[2 3 4],u1,v1=[u2 v2], t1=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x1}),x2=2, xr2=[3 4],u2,v2, t2=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x2}), x3= 3, xr3=[4 ], u3, v3,t3=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x3})}</t>
+  </si>
+  <si>
+    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end,{}) ,f1=(proc{$ X R}&lt;sp2&gt;end,{}),l1=[1 2 3 4],l2=[u1 v1 ],a1,b1,c1,x1=1, xr1=[2 3 4],u1,v1=[u2 v2],  t1=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x1}),x2=2, xr2=[3 4],u2,v2, t2=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x2}), x3= 3, xr3=[4 ], u3, v3,t3=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x3}), x4=4, xr4 =[ ], u4, v4}</t>
+  </si>
+  <si>
+    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end,{}) ,f1=(proc{$ X R}&lt;sp2&gt;end,{}),l1=[1 2 3 4],l2=[u1 v1 ],a1,b1,c1,x1=1, xr1=[2 3 4],u1,v1=[u2 v2],  t1=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x1}),x2=2, xr2=[3 4],u2,v2, t2=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x2}), x3= 3, xr3=[4 ], u3, v3,t3=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x3}), x4=4, xr4 =[ ], u4, v4,t4=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x4})}</t>
+  </si>
+  <si>
+    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end,{}) ,f1=(proc{$ X R}&lt;sp2&gt;end,{}),l1=[1 2 3 4],l2=[u1 v1 ],a1,b1,c1,x1=1, xr1=[2 3 4],u1,v1=[u2 v2],  t1=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x1}),x2=2, xr2=[3 4],u2,v2, t2=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x2}), x3= 3, xr3=[4 ], u3, v3,t3=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x3}), x4=4, xr4 =[ ], u4, v4,t4=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x4}))}</t>
+  </si>
+  <si>
+    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end,{}) ,f1=(proc{$ X R}&lt;sp2&gt;end,{}),l1=[1 2 3 4],l2=[u1 v1 ],a1,b1,c1,x1=1, xr1=[2 3 4],u1,v1=[u2 v2], t1=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x1}),x2=2, xr2=[3 4],u2,v2=[u3 v3], t2=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x2}), x3= 3, xr3=[4 ], u3, v3=[u4 v4],t3=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x3}), x4=4, xr4 =[ ], u4, v4=nil,t4=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x4})}</t>
+  </si>
+  <si>
+    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end,{}) ,f1=(proc{$ X R}&lt;sp2&gt;end,{}),l1=[1 2 3 4],l2=[u1 v1 ],a1,b1=4,c1,x1=1, xr1=[2 3 4],u1,v1=[u2 v2], t1=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x1}),x2=2, xr2=[3 4],u2,v2=[u3 v3], t2=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x2}), x3= 3, xr3=[4 ], u3, v3=[u4 v4],t3=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x3}), x4=4, xr4 =[ ], u4, v4=nil,t4=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x4})}</t>
+  </si>
+  <si>
+    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end,{}) ,f1=(proc{$ X R}&lt;sp2&gt;end,{}),l1=[1 2 3 4],l2=[u1 v1 ],a1=1,b1=4,c1,x1=1, xr1=[2 3 4],u1,v1=[u2 v2], t1=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x1}),x2=2, xr2=[3 4],u2,v2=[u3 v3], t2=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x2}), x3= 3, xr3=[4 ], u3, v3=[u4 v4],t3=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x3}), x4=4, xr4 =[ ], u4, v4=nil,t4=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x4})}</t>
+  </si>
+  <si>
+    <t>s={m1=(proc{$ Xs F R}&lt;sp1&gt;end,{}) ,f1=(proc{$ X R}&lt;sp2&gt;end,{}),l1=[1 2 3 4],l2=[u1 v1 ],a1=1,b1=4,c1=5,x1=1, xr1=[2 3 4],u1,v1=[u2 v2], t1=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x1}),x2=2, xr2=[3 4],u2,v2=[u3 v3], t2=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x2}), x3= 3, xr3=[4 ], u3, v3=[u4 v4],t3=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x3}), x4=4, xr4 =[ ], u4, v4=nil,t4=(proc{$ R}&lt;sp2_1-1&gt;end,{X-&gt;x4})}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,7 +589,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -624,27 +621,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -676,24 +655,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -869,24 +830,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
@@ -894,7 +855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="12"/>
       <c r="B3" s="10" t="s">
         <v>19</v>
@@ -903,7 +864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="12"/>
       <c r="B4" s="10"/>
       <c r="C4" t="s">
@@ -913,14 +874,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="12"/>
       <c r="B5" s="10"/>
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="12"/>
       <c r="B6" s="10"/>
       <c r="D6" t="s">
@@ -930,7 +891,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="12"/>
       <c r="B7" s="10"/>
       <c r="E7" t="s">
@@ -941,7 +902,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="12"/>
       <c r="B8" s="10"/>
       <c r="E8" t="s">
@@ -952,7 +913,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="12"/>
       <c r="B9" s="10"/>
       <c r="E9" t="s">
@@ -963,7 +924,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="12"/>
       <c r="B10" s="10"/>
       <c r="D10" t="s">
@@ -971,29 +932,29 @@
       </c>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="12"/>
       <c r="B11" s="10"/>
       <c r="C11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="12"/>
       <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="12"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="12"/>
       <c r="B14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="12"/>
       <c r="B15" s="10" t="s">
         <v>20</v>
@@ -1002,7 +963,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="12"/>
       <c r="B16" s="10"/>
       <c r="C16" s="11" t="s">
@@ -1012,7 +973,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="12"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
@@ -1023,7 +984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="12"/>
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
@@ -1031,7 +992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="12"/>
       <c r="B19" s="10"/>
       <c r="C19" t="s">
@@ -1041,16 +1002,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="12"/>
       <c r="B20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="12"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="12"/>
       <c r="B22" t="s">
         <v>12</v>
@@ -1059,7 +1020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="12"/>
       <c r="B23" t="s">
         <v>13</v>
@@ -1068,7 +1029,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="12"/>
       <c r="B24" t="s">
         <v>14</v>
@@ -1077,7 +1038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="12"/>
       <c r="B25" t="s">
         <v>16</v>
@@ -1086,7 +1047,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="12"/>
       <c r="B26" t="s">
         <v>15</v>
@@ -1095,7 +1056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="12"/>
       <c r="B27" t="s">
         <v>17</v>
@@ -1104,7 +1065,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1123,19 +1084,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="I198" sqref="I198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="B1" t="s">
         <v>38</v>
       </c>
@@ -1146,10 +1107,10 @@
         <v>40</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="4" t="s">
         <v>49</v>
       </c>
@@ -1163,10 +1124,10 @@
         <v>41</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="4" t="s">
         <v>50</v>
       </c>
@@ -1174,985 +1135,985 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="B6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K6" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="B7" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="B8" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="B9" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="B10" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="C11" s="5"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="B15" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="B16" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="B17" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="B18" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11">
       <c r="B22" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="B23" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="B24" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="B25" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K27" s="4" t="s">
+    <row r="27" spans="1:11">
+      <c r="K27" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="B29" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="B30" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="B31" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="B32" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="B36" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="B37" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="B38" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="B39" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="B40" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="B41" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="B45" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="B46" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="B47" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="B48" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="B49" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="B50" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="B54" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="K54" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="B55" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" s="4" t="s">
+    </row>
+    <row r="56" spans="1:11">
+      <c r="B56" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K35" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B53" s="4" t="s">
+    </row>
+    <row r="57" spans="1:11">
+      <c r="B57" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="B58" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="B59" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="B60" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="B64" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="B65" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="B66" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="B67" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="B68" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="B69" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="B70" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q73" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="K53" s="4" t="s">
+    </row>
+    <row r="74" spans="1:17">
+      <c r="B74" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="B75" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="B76" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="B77" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="B78" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K54" s="4" t="s">
+      <c r="B81" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K81" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="B82" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="B83" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="B84" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="B85" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B56" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+      <c r="B87" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B65" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B66" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B67" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B68" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B69" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B70" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+      <c r="E87" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q73" s="4" t="s">
+    </row>
+    <row r="88" spans="1:11">
+      <c r="B88" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="B89" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="B90" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="B91" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B74" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B75" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B76" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B77" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B78" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
+      <c r="B94" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K81" s="4" t="s">
+      <c r="E94" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K94" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="B95" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B83" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B84" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B85" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+    <row r="96" spans="1:11">
+      <c r="B96" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E87" s="4" t="s">
+    </row>
+    <row r="97" spans="1:17">
+      <c r="B97" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
+      <c r="B98" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
+      <c r="B99" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
+      <c r="B100" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="K102" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="A103" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B88" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B89" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B90" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B91" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
+      <c r="B103" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
+      <c r="B104" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
+      <c r="B105" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
+      <c r="B106" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q106" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B94" s="4" t="s">
+    </row>
+    <row r="107" spans="1:17">
+      <c r="B107" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
+      <c r="B108" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17">
+      <c r="A112" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="B112" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K112" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="B113" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="B114" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="B115" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="B116" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E118" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="K94" s="4" t="s">
+    </row>
+    <row r="119" spans="1:11">
+      <c r="B119" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="B120" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="B121" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="B122" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B95" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B96" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B97" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B98" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B99" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B100" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K102" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B104" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B105" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B106" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q106" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B107" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B108" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K112" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B113" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B114" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B115" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B116" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B119" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B120" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B121" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B122" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="E125" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="K125" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="K125" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="7"/>
       <c r="B126" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="7"/>
       <c r="B127" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="7"/>
       <c r="B128" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17">
       <c r="A129" s="7"/>
       <c r="B129" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17">
       <c r="A130" s="7"/>
       <c r="B130" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17">
       <c r="A131" s="7"/>
       <c r="B131" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K133" s="4" t="s">
+    <row r="133" spans="1:17">
+      <c r="K133" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17">
+      <c r="A134" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17">
+      <c r="B135" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17">
+      <c r="B136" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q136" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17">
+      <c r="B137" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17">
+      <c r="B138" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17">
+      <c r="B139" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17">
+      <c r="K141" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17">
+      <c r="A142" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17">
+      <c r="B143" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17">
+      <c r="B144" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="B145" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="B146" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="B150" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="B151" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="B152" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="B153" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E156" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B135" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B136" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q136" s="4" t="s">
+      <c r="K156" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="B157" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="B158" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="B159" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="B160" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17">
+      <c r="B161" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17">
+      <c r="B162" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17">
+      <c r="K165" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17">
+      <c r="A166" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B137" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B138" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B139" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K141" s="4" t="s">
+      <c r="B166" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17">
+      <c r="B167" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17">
+      <c r="B168" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q168" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17">
+      <c r="B169" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17">
+      <c r="B170" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17">
+      <c r="B171" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17">
+      <c r="A174" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A142" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B143" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B144" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B145" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B146" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="4" t="s">
+      <c r="B174" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K174" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17">
+      <c r="B175" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17">
+      <c r="B176" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16">
+      <c r="B177" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16">
+      <c r="B178" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16">
+      <c r="A181" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B181" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16">
+      <c r="B182" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16">
+      <c r="B183" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16">
+      <c r="B184" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16">
+      <c r="B185" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16">
+      <c r="K186" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16">
+      <c r="A187" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16">
+      <c r="B188" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16">
+      <c r="B189" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16">
+      <c r="B190" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16">
+      <c r="P191" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16">
+      <c r="A192" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E149" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B150" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B151" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B152" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B153" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B156" s="4" t="s">
+      <c r="B192" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C192" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E156" s="4" t="s">
+    </row>
+    <row r="193" spans="1:16">
+      <c r="B193" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16">
+      <c r="B194" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16">
+      <c r="A197" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="P197" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16">
+      <c r="B198" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16">
+      <c r="A201" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16">
+      <c r="A203" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="K156" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B157" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B158" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B159" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B160" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B161" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B162" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K165" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B167" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B168" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q168" s="4" t="s">
+      <c r="B203" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C203" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K203" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16">
+      <c r="B204" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C204" s="9"/>
+    </row>
+    <row r="206" spans="1:16">
+      <c r="A206" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B169" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B170" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B171" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
+      <c r="B206" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K206" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16">
+      <c r="B207" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B174" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K174" s="4" t="s">
+      <c r="B209" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K209" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212" s="4" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B175" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B176" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B177" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B178" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A181" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E181" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B182" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B183" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B184" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B185" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K186" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A187" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B187" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B188" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B189" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B190" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="P191" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A192" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B192" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B193" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B194" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A197" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B197" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C197" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E197" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="P197" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B198" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A201" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A203" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B203" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C203" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="K203" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B204" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C204" s="9"/>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A206" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B206" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="K206" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B207" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B209" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K209" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A212" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
